--- a/IncomeTax_Challan_Template.xlsx
+++ b/IncomeTax_Challan_Template.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B33171-812D-4FEB-BA32-44A85709D854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="Challan Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Instructions" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="Challan Data" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Instructions" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -76,6 +75,24 @@
   </si>
   <si>
     <t>Payment Mode</t>
+  </si>
+  <si>
+    <t>Vikas company</t>
+  </si>
+  <si>
+    <t>BWCPV3115J</t>
+  </si>
+  <si>
+    <t>K@til007</t>
+  </si>
+  <si>
+    <t>2025-26</t>
+  </si>
+  <si>
+    <t>Login failed</t>
+  </si>
+  <si>
+    <t>Ravi and co</t>
   </si>
   <si>
     <t>Income Tax Challan Automation - Excel Template Instructions</t>
@@ -225,34 +242,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\₹#,##0"/>
+    <numFmt numFmtId="164" formatCode="₹#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF366092"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="10"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <color rgb="FF366092"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF2F5233"/>
       <sz val="12"/>
-      <color rgb="FF2F5233"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -305,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -322,6 +347,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,15 +686,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -684,7 +710,7 @@
     <col min="20" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="25.05" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -746,285 +772,379 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1652</v>
+      </c>
+      <c r="H2" s="2">
+        <v>235</v>
+      </c>
+      <c r="I2" s="2">
+        <v>685</v>
+      </c>
+      <c r="J2" s="2">
+        <v>425</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2536</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9315</v>
+      </c>
+      <c r="I3" s="2">
+        <v>9319</v>
+      </c>
+      <c r="J3" s="2">
+        <v>444</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T1"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="49.77734375" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
+    <row r="1" ht="18" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>24</v>
+      <c r="A4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>26</v>
+      <c r="A5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>28</v>
+      <c r="A6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>30</v>
+      <c r="A7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>32</v>
+      <c r="A8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>34</v>
+      <c r="A9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>36</v>
+      <c r="A10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>38</v>
+      <c r="A11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>40</v>
+      <c r="A12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>42</v>
+      <c r="A13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>44</v>
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>47</v>
+      <c r="A17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>49</v>
+      <c r="A18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>51</v>
+      <c r="A19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>53</v>
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>55</v>
+      <c r="A21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>57</v>
+      <c r="A22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>59</v>
+      <c r="A23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/IncomeTax_Challan_Template.xlsx
+++ b/IncomeTax_Challan_Template.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DB63D7-1AE2-40D3-8A8B-89E2DD43397B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Challan Data" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Instructions" state="visible" r:id="rId5"/>
+    <sheet name="Challan Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -87,9 +99,6 @@
   </si>
   <si>
     <t>2025-26</t>
-  </si>
-  <si>
-    <t>Login failed</t>
   </si>
   <si>
     <t>Ravi and co</t>
@@ -242,42 +251,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="₹#,##0"/>
+    <numFmt numFmtId="164" formatCode="\₹#,##0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF366092"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <color theme="10"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF366092"/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="12"/>
       <color rgb="FF2F5233"/>
-      <sz val="12"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -686,15 +695,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -710,7 +719,7 @@
     <col min="20" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.05" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -772,7 +781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -812,17 +821,13 @@
       <c r="M2" s="2">
         <v>0</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>21</v>
@@ -857,294 +862,664 @@
       <c r="M3" s="2">
         <v>0</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" t="s">
+    </row>
+    <row r="4" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2">
+        <v>25400</v>
+      </c>
+      <c r="H4" s="2">
+        <v>18946</v>
+      </c>
+      <c r="I4" s="2">
+        <v>14056</v>
+      </c>
+      <c r="J4" s="2">
+        <v>20600</v>
+      </c>
+      <c r="K4" s="2">
+        <v>20977</v>
+      </c>
+      <c r="L4" s="2">
+        <v>8887</v>
+      </c>
+      <c r="M4" s="2">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2">
+        <v>24582</v>
+      </c>
+      <c r="H5" s="2">
+        <v>17158</v>
+      </c>
+      <c r="I5" s="2">
+        <v>25880</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9516</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1944</v>
+      </c>
+      <c r="L5" s="2">
+        <v>12885</v>
+      </c>
+      <c r="M5" s="2">
+        <v>19236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2">
+        <v>17046</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8386</v>
+      </c>
+      <c r="I6" s="2">
+        <v>21414</v>
+      </c>
+      <c r="J6" s="2">
+        <v>16137</v>
+      </c>
+      <c r="K6" s="2">
+        <v>13683</v>
+      </c>
+      <c r="L6" s="2">
+        <v>9011</v>
+      </c>
+      <c r="M6" s="2">
+        <v>21216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6571</v>
+      </c>
+      <c r="H7" s="2">
+        <v>15910</v>
+      </c>
+      <c r="I7" s="2">
+        <v>20986</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10144</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4419</v>
+      </c>
+      <c r="L7" s="2">
+        <v>24379</v>
+      </c>
+      <c r="M7" s="2">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3531</v>
+      </c>
+      <c r="H8" s="2">
+        <v>20011</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2952</v>
+      </c>
+      <c r="J8" s="2">
+        <v>13111</v>
+      </c>
+      <c r="K8" s="2">
+        <v>26340</v>
+      </c>
+      <c r="L8" s="2">
+        <v>26376</v>
+      </c>
+      <c r="M8" s="2">
+        <v>19972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3100</v>
+      </c>
+      <c r="H9" s="2">
+        <v>18398</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2503</v>
+      </c>
+      <c r="J9" s="2">
+        <v>20083</v>
+      </c>
+      <c r="K9" s="2">
+        <v>15962</v>
+      </c>
+      <c r="L9" s="2">
+        <v>14022</v>
+      </c>
+      <c r="M9" s="2">
+        <v>10479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3140</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4299</v>
+      </c>
+      <c r="I10" s="2">
+        <v>12216</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6930</v>
+      </c>
+      <c r="K10" s="2">
+        <v>22873</v>
+      </c>
+      <c r="L10" s="2">
+        <v>13253</v>
+      </c>
+      <c r="M10" s="2">
+        <v>19811</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3204</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3203</v>
+      </c>
+      <c r="I11" s="2">
+        <v>20897</v>
+      </c>
+      <c r="J11" s="2">
+        <v>21705</v>
+      </c>
+      <c r="K11" s="2">
+        <v>26070</v>
+      </c>
+      <c r="L11" s="2">
+        <v>14435</v>
+      </c>
+      <c r="M11" s="2">
+        <v>9071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2">
+        <v>26314</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10561</v>
+      </c>
+      <c r="I12" s="2">
+        <v>15759</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3338</v>
+      </c>
+      <c r="K12" s="2">
+        <v>6055</v>
+      </c>
+      <c r="L12" s="2">
+        <v>7845</v>
+      </c>
+      <c r="M12" s="2">
+        <v>4297</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T1"/>
+  <autoFilter ref="A1:T1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{908D0289-5B7A-48AF-B2FE-BFE27DD74DF6}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{55155602-F139-4A4B-83DA-95B7D8D173D3}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{A1DCF1F2-0144-4B6C-9EF6-271C251CC904}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{CCD3C70B-EA85-491C-9DB2-1B626932247F}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{3F94928A-85AD-4C18-A3A1-057F038BC484}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.77734375" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" ht="15.6" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" ht="15.6" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>68</v>
       </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>69</v>
       </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>70</v>
       </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>71</v>
       </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>72</v>
       </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>